--- a/Plantilla Pruebas de Validación.xlsx
+++ b/Plantilla Pruebas de Validación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOHN\Documents\NetBeansProjects\itemsdash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A91D2-5950-4044-94FA-D26252118ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0CAA9C-1819-4B45-AF21-7B80F03EF6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31F41C49-E239-47AC-B36A-7BC331BCD767}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>ID del Caso</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>https://mega.nz/file/hVhmwRrS#7k0yqbwkvyNOBzm6hTXZ13Qc68emSZ3YRauH5vK-Slc</t>
+  </si>
+  <si>
+    <t>VAL-04</t>
+  </si>
+  <si>
+    <t>Mostrar Ítems</t>
+  </si>
+  <si>
+    <t>Validar que todos los ítems almacenados en la BD se desplieguen en pantalla.</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Clic en el enlace "Ver todos los ítems".</t>
+  </si>
+  <si>
+    <t>Se carga una nueva página que muestra una tabla con los campos "ID", "NOMBRE", "PRECIO" y "ACCIONES" de cada uno de los ítems almacenados. Se despliega el mensaje "Ítems cargados correctamente".</t>
+  </si>
+  <si>
+    <t>Todos los ítems almacenados en la BD se despliegan correctamente en una tabla.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/NRA0SIxR#fPrb34EX7pbvd00N3R5SEzQv3bPq2BbcA2NelSmfA64</t>
   </si>
 </sst>
 </file>
@@ -610,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACD8F6D-5F51-4D13-88CB-158ED6F0A9A0}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,8 +791,38 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L6" s="11"/>
+    <row r="6" spans="2:12" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45862</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L7" s="11"/>
@@ -862,7 +913,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5" xr:uid="{9C783D4C-DDA6-4CA8-98C8-F79CC5FEA349}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K6" xr:uid="{9C783D4C-DDA6-4CA8-98C8-F79CC5FEA349}">
       <formula1>"Pendiente, Éxito, Fallida, Retest"</formula1>
     </dataValidation>
   </dataValidations>
@@ -870,8 +921,9 @@
     <hyperlink ref="I3" r:id="rId1" location="UkB7SZbSWnbGIBsYVCvdvT45fxcFc30CHPPgjoC7h7U" xr:uid="{B7047CAD-CFEF-4D8B-8719-A49BE3661777}"/>
     <hyperlink ref="I4" r:id="rId2" location="8I-82ji-fOhxH_yMuIZwBBMS5EkLriylFRH4YxfUPXI" xr:uid="{9CDDC340-D7AC-4F7F-8AAC-CDE74A7E3A4F}"/>
     <hyperlink ref="I5" r:id="rId3" location="7k0yqbwkvyNOBzm6hTXZ13Qc68emSZ3YRauH5vK-Slc" xr:uid="{75F9D815-FD95-42E0-AD31-185898C5353A}"/>
+    <hyperlink ref="I6" r:id="rId4" location="fPrb34EX7pbvd00N3R5SEzQv3bPq2BbcA2NelSmfA64" xr:uid="{E5335505-1F12-4BA4-9962-AA0945072BA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Plantilla Pruebas de Validación.xlsx
+++ b/Plantilla Pruebas de Validación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOHN\Documents\NetBeansProjects\itemsdash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0CAA9C-1819-4B45-AF21-7B80F03EF6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4B4D0-1CF1-420C-8C6E-210153EAD396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31F41C49-E239-47AC-B36A-7BC331BCD767}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>ID del Caso</t>
   </si>
@@ -141,10 +141,31 @@
     <t>VAL-04</t>
   </si>
   <si>
+    <t>Validar que al presionar el botón "Guardar cambios", si la información de los campos es correcta, se creará un nuevo registro en la BD con la información suministrada.</t>
+  </si>
+  <si>
+    <t>Ingresar "Pepsi" en el campo "Nombre del ítem" y "3,25"en el campo "Precio del ítem". Presionar el botón "Guardar Ítem".</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Ingresar información válida en ambos campos. &lt;br&gt;3. Hacer clic en el botón "Guardar Ítem".</t>
+  </si>
+  <si>
+    <t>El formulario se limpiará y se despliega un mensaje con el "ID" del ítem creado y su nombre, seguidos de las líneas "guardado con éxito".</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/kBYynQiL#Amn5-U87g0VbmKtG5ehINH0tUzHYcF6LGDVk6yWDekQ</t>
+  </si>
+  <si>
+    <t>VAL-05</t>
+  </si>
+  <si>
     <t>Mostrar Ítems</t>
   </si>
   <si>
     <t>Validar que todos los ítems almacenados en la BD se desplieguen en pantalla.</t>
+  </si>
+  <si>
+    <t>Hacer clic en el enlace "Ver todos los ítems".</t>
   </si>
   <si>
     <t>1. Abrir el formulario. &lt;br&gt;2. Clic en el enlace "Ver todos los ítems".</t>
@@ -631,14 +652,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACD8F6D-5F51-4D13-88CB-158ED6F0A9A0}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
@@ -651,7 +672,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -791,17 +812,19 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
@@ -809,10 +832,10 @@
         <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>26</v>
@@ -824,8 +847,40 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L7" s="11"/>
+    <row r="7" spans="2:12" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45862</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L8" s="11"/>
@@ -918,12 +973,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" location="UkB7SZbSWnbGIBsYVCvdvT45fxcFc30CHPPgjoC7h7U" xr:uid="{B7047CAD-CFEF-4D8B-8719-A49BE3661777}"/>
-    <hyperlink ref="I4" r:id="rId2" location="8I-82ji-fOhxH_yMuIZwBBMS5EkLriylFRH4YxfUPXI" xr:uid="{9CDDC340-D7AC-4F7F-8AAC-CDE74A7E3A4F}"/>
-    <hyperlink ref="I5" r:id="rId3" location="7k0yqbwkvyNOBzm6hTXZ13Qc68emSZ3YRauH5vK-Slc" xr:uid="{75F9D815-FD95-42E0-AD31-185898C5353A}"/>
-    <hyperlink ref="I6" r:id="rId4" location="fPrb34EX7pbvd00N3R5SEzQv3bPq2BbcA2NelSmfA64" xr:uid="{E5335505-1F12-4BA4-9962-AA0945072BA1}"/>
+    <hyperlink ref="I7" r:id="rId1" location="fPrb34EX7pbvd00N3R5SEzQv3bPq2BbcA2NelSmfA64" xr:uid="{3B40F827-308E-42FE-BD8D-D53358D08E49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Plantilla Pruebas de Validación.xlsx
+++ b/Plantilla Pruebas de Validación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOHN\Documents\NetBeansProjects\itemsdash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4B4D0-1CF1-420C-8C6E-210153EAD396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147A557-A474-4D13-BD53-5428CA2D9D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31F41C49-E239-47AC-B36A-7BC331BCD767}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>ID del Caso</t>
   </si>
@@ -178,6 +178,84 @@
   </si>
   <si>
     <t>https://mega.nz/file/NRA0SIxR#fPrb34EX7pbvd00N3R5SEzQv3bPq2BbcA2NelSmfA64</t>
+  </si>
+  <si>
+    <t>VAL-06</t>
+  </si>
+  <si>
+    <t>Editar ítem</t>
+  </si>
+  <si>
+    <t>Validar que se despliegue la ventana de edición del ítem en particular, al presionar el correspondiente botón "Editar".</t>
+  </si>
+  <si>
+    <t>Hacer clic en el botón "Editar" del ítem que se desea editar.</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todos los ítems". &lt;br&gt;3. Hacer clic en el botón "Editar" del ítem que se desea editar.</t>
+  </si>
+  <si>
+    <t>Se carga un nuevo formulario con la información del ítem que se desea editar.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/tI4yhATR#F6Z0SIiMI_30Vsc_qoS1r0TUB-SU6MR4WvauF3GCV-A</t>
+  </si>
+  <si>
+    <t>VAL-07</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todos los ítems". &lt;br&gt;3. Hacer clic en el botón "Editar" del ítem que se desea editar. &lt;br&gt;4. Ingresar información deseada en el campo "Nombre del ítem".</t>
+  </si>
+  <si>
+    <t>La información ingresada en el campo "Nombre del ítem" se recibe sin problema.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/xcRi0QpQ#P8KvwRXb1WAaBq-78hs-FfWyk02xQe3ec5Ikmw0fdk0</t>
+  </si>
+  <si>
+    <t>VAL-08</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todoslos ítems". &lt;br&gt;3. Hacer clic en el botón "Editar" del ítem que se desea editar. &lt;br&gt;4. Ingresar información deseada en el campo "Precio del ítem".</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/ZdZV2KSS#Rww2yEdMsf94PdlJd-DOgRRKgAPlGsCFlMv27wGe7tI</t>
+  </si>
+  <si>
+    <t>VAL-09</t>
+  </si>
+  <si>
+    <t>Validar que al presionar el botón "Guardar cambios", si alguno de los campos o ambos inclusive, están vacíos, el cursor se pondrá sobre el campo que se debe rellenar.</t>
+  </si>
+  <si>
+    <t>Dejar cualquier campo, o ambos, vacíos y hacer clic sobre el botón "Guadar cambios".</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todos los ítems". &lt;br&gt;3. Hacer clic en el botón "Editar" del ítem que se desea editar. &lt;br&gt;4. Dejar cualquier campo vacío. &lt;br&gt;5. Presionar el botón "Guardar cambios".</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/xJRi1BZL#U-9ZYXggiurAM7WG1o5XmjJMRr3Bli-swPWeyO0t4nk</t>
+  </si>
+  <si>
+    <t>VAL-10</t>
+  </si>
+  <si>
+    <t>Validar que al editar con información válida cualquiera de los dos campos del formulario y presionar el botón "Guardar cambios", la infromación editada se actualiza correctamente en la BD.</t>
+  </si>
+  <si>
+    <t>En el campo "Nombre del íetm" ingresar: "Pepsi". &lt;br&gt;En el campo "Precio del ítem" ingresar: "3,25".</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todos los ítems". &lt;br&gt;3. Hacer clic en el botón "Editar" del ítem que se desea editar. &lt;br&gt;4. Ingresar en el campo "Nombre del ítem" y/o "Precio del ítem" valores válidos. &lt;br&gt;5. Presionar el botón "Guardar cambios".</t>
+  </si>
+  <si>
+    <t>Los datos modificados se actualizan correctamente en la BD. El formulario se cierra y la nueva información se ve reflejada en la tabla.</t>
+  </si>
+  <si>
+    <t>El formulario se cerró y la información actualizada se ve refeljada en la tabla.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/0RJwDL7B#NISm8eG_3MjvXG0KYfC_773dbj--wsVm4NnG7pOT4ac</t>
   </si>
 </sst>
 </file>
@@ -652,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACD8F6D-5F51-4D13-88CB-158ED6F0A9A0}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -882,20 +960,180 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L12" s="11"/>
+    <row r="8" spans="2:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45862</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L13" s="11"/>
@@ -974,8 +1212,13 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" location="fPrb34EX7pbvd00N3R5SEzQv3bPq2BbcA2NelSmfA64" xr:uid="{3B40F827-308E-42FE-BD8D-D53358D08E49}"/>
+    <hyperlink ref="I8" r:id="rId2" location="F6Z0SIiMI_30Vsc_qoS1r0TUB-SU6MR4WvauF3GCV-A" xr:uid="{00373393-B1D7-432B-920E-A9690179E67D}"/>
+    <hyperlink ref="I9" r:id="rId3" location="P8KvwRXb1WAaBq-78hs-FfWyk02xQe3ec5Ikmw0fdk0" xr:uid="{78D6BC16-F7A4-4AE2-A6A7-70FB9878ED41}"/>
+    <hyperlink ref="I10" r:id="rId4" location="Rww2yEdMsf94PdlJd-DOgRRKgAPlGsCFlMv27wGe7tI" xr:uid="{68303210-C26B-425E-9C64-5427630319ED}"/>
+    <hyperlink ref="I11" r:id="rId5" location="U-9ZYXggiurAM7WG1o5XmjJMRr3Bli-swPWeyO0t4nk" xr:uid="{319090AD-BCA5-4F43-9DD0-D83F79AE5B3C}"/>
+    <hyperlink ref="I12" r:id="rId6" location="NISm8eG_3MjvXG0KYfC_773dbj--wsVm4NnG7pOT4ac" xr:uid="{1FF02820-3380-46AF-84B8-7EE7A7EB99E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Plantilla Pruebas de Validación.xlsx
+++ b/Plantilla Pruebas de Validación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOHN\Documents\NetBeansProjects\itemsdash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147A557-A474-4D13-BD53-5428CA2D9D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E57808-6C37-4F42-9ED4-E87D99FFBBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31F41C49-E239-47AC-B36A-7BC331BCD767}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>ID del Caso</t>
   </si>
@@ -256,6 +256,63 @@
   </si>
   <si>
     <t>https://mega.nz/file/0RJwDL7B#NISm8eG_3MjvXG0KYfC_773dbj--wsVm4NnG7pOT4ac</t>
+  </si>
+  <si>
+    <t>VAL-11</t>
+  </si>
+  <si>
+    <t>Eliminar ítem</t>
+  </si>
+  <si>
+    <t>Validar que al hacer clic sobre el botón "Eliminar" se despliega un mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Hacer clic sobre el botón "Eliminar" del ítem elegido.</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todos los ítems". &lt;br&gt;3. Hacer clic en el botón "Eliminar" del ítem que se desea eliminar.</t>
+  </si>
+  <si>
+    <t>Se despliega un mensaje de confirmación con las opciones "Aceptar" y "Cancelar". El mensaje incluye el "ID" del ítem y su nombre.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/oAg1gSqZ#_mN0MENfuYOHQRpTqU9BCY_l0vVktp1y7iX7zik85ow</t>
+  </si>
+  <si>
+    <t>VAL-12</t>
+  </si>
+  <si>
+    <t>Validar que al elegir la opción "Cancelar" en el mensaje de confirmación, este se cierra y la BD no se modifica.</t>
+  </si>
+  <si>
+    <t>Hacer clic sobre la opción "Cancelar".</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todos los ítems". &lt;br&gt;3. Hacer clic en el botón "Eliminar" del ítem que se desea eliminar. &lt;br&gt;4. Hacer clic en el botón "Cancelar".</t>
+  </si>
+  <si>
+    <t>El mensaje de confirmación se cierra. La BD no se modifica y los ítems de la misma se despliegan en la tabla.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/YZAFSACZ#ItGMwskLCubKQ9GPWmoBCqyWsFRInKejeewQ57ub6Gs</t>
+  </si>
+  <si>
+    <t>VAL-13</t>
+  </si>
+  <si>
+    <t>Validar que al elegir la opción "Aceptar" en el mensaje de confirmación, este se cierra y el ítem se elimina de la BD.</t>
+  </si>
+  <si>
+    <t>Hacer clic sobre la opción "Aceptar".</t>
+  </si>
+  <si>
+    <t>1. Abrir el formulario. &lt;br&gt;2. Hacer clic en el enlace "Ver todos los ítems". &lt;br&gt;3. Hacer clic en el botón "Eliminar" del ítem que se desea eliminar. &lt;br&gt;4. Hacer clic en el botón "Aceptar".</t>
+  </si>
+  <si>
+    <t>El mensaje de confirmación se cierra. La BD se modifica y los ítems de la misma se despliegan en la tabla. El ítem eliminado ya no aparece en la tabla.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/RYAVFRya#Z6D7S-LsEyo99XP3pqi3_U7nsXBTmp-dlX0ChVGb8Pc</t>
   </si>
 </sst>
 </file>
@@ -730,20 +787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACD8F6D-5F51-4D13-88CB-158ED6F0A9A0}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.90625" style="7" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" style="7" customWidth="1"/>
     <col min="12" max="12" width="14.7265625" style="7" customWidth="1"/>
@@ -1135,14 +1192,110 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L15" s="11"/>
+    <row r="13" spans="2:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45862</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L16" s="11"/>
@@ -1217,8 +1370,11 @@
     <hyperlink ref="I10" r:id="rId4" location="Rww2yEdMsf94PdlJd-DOgRRKgAPlGsCFlMv27wGe7tI" xr:uid="{68303210-C26B-425E-9C64-5427630319ED}"/>
     <hyperlink ref="I11" r:id="rId5" location="U-9ZYXggiurAM7WG1o5XmjJMRr3Bli-swPWeyO0t4nk" xr:uid="{319090AD-BCA5-4F43-9DD0-D83F79AE5B3C}"/>
     <hyperlink ref="I12" r:id="rId6" location="NISm8eG_3MjvXG0KYfC_773dbj--wsVm4NnG7pOT4ac" xr:uid="{1FF02820-3380-46AF-84B8-7EE7A7EB99E0}"/>
+    <hyperlink ref="I13" r:id="rId7" location="_mN0MENfuYOHQRpTqU9BCY_l0vVktp1y7iX7zik85ow" xr:uid="{C22EAF2B-8A60-418C-A40F-148E7DE1EBEF}"/>
+    <hyperlink ref="I14" r:id="rId8" location="ItGMwskLCubKQ9GPWmoBCqyWsFRInKejeewQ57ub6Gs" xr:uid="{BAD1705A-D307-4A5C-BA7B-A04F6E9DF32D}"/>
+    <hyperlink ref="I15" r:id="rId9" location="Z6D7S-LsEyo99XP3pqi3_U7nsXBTmp-dlX0ChVGb8Pc" xr:uid="{D8F951DC-F9C7-4A78-BD8F-0FEF88565D15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>